--- a/示例表格/Student.xlsx
+++ b/示例表格/Student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ExcelExport\示例表格\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CFF487-B53C-4324-8E41-253099BCC9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B8D15-61E8-4DC6-A9D2-ED7BCAEF511F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="3053" windowWidth="21870" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="def" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>字段名称</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>1.1,4.5,6.7,4.6</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Stud1</t>
@@ -427,11 +424,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -873,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>30</v>
@@ -889,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>33</v>
@@ -905,7 +902,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>34</v>
@@ -923,8 +920,8 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>50</v>
+      <c r="C11" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="16"/>
       <c r="F11" s="7"/>
@@ -1078,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1130,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21">
         <v>21</v>
@@ -1142,27 +1139,25 @@
         <v>50.3</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21">
         <v>23</v>
@@ -1174,20 +1169,18 @@
         <v>56.4</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="21"/>
@@ -1270,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1281,10 +1274,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1384,18 +1377,18 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="9:18">
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
     </row>
     <row r="27" spans="9:18">
       <c r="I27" s="2"/>
